--- a/ResultadoEleicoesDistritos/SETÚBAL_MONTIJO.xlsx
+++ b/ResultadoEleicoesDistritos/SETÚBAL_MONTIJO.xlsx
@@ -597,64 +597,64 @@
         <v>13316</v>
       </c>
       <c r="H2" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="I2" t="n">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="J2" t="n">
-        <v>5401</v>
+        <v>5404</v>
       </c>
       <c r="K2" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L2" t="n">
-        <v>1451</v>
+        <v>1436</v>
       </c>
       <c r="M2" t="n">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="N2" t="n">
-        <v>970</v>
+        <v>990</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S2" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="T2" t="n">
-        <v>894</v>
+        <v>975</v>
       </c>
       <c r="U2" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="V2" t="n">
-        <v>8715</v>
+        <v>8566</v>
       </c>
       <c r="W2" t="n">
         <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>8575</v>
+        <v>8554</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA2" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
